--- a/ProductPivot/ProductionPivot_Unsolved.xlsx
+++ b/ProductPivot/ProductionPivot_Unsolved.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\12-Stu_ProductPivot\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regina\Excel_Challenge\ProductPivot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -115,12 +115,15 @@
   </si>
   <si>
     <t>Shipping Price</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -582,7 +585,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A52" si="0">100+ROW()-2</f>
+        <f t="shared" ref="A4:A11" si="0">100+ROW()-2</f>
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -784,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E29"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +800,7 @@
     <col min="4" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -813,8 +816,11 @@
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10029367401</v>
       </c>
@@ -827,7 +833,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>10029367401</v>
       </c>
@@ -840,7 +846,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10029367401</v>
       </c>
@@ -853,7 +859,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10029367401</v>
       </c>
@@ -866,7 +872,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10029367402</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>10029367402</v>
       </c>
@@ -892,7 +898,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>10029367402</v>
       </c>
@@ -905,7 +911,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>10029367403</v>
       </c>
@@ -918,7 +924,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10029367403</v>
       </c>
@@ -931,7 +937,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10029367403</v>
       </c>
@@ -944,7 +950,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10029367403</v>
       </c>
@@ -957,7 +963,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10029367403</v>
       </c>
@@ -970,7 +976,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10029367403</v>
       </c>
@@ -983,7 +989,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>10029367403</v>
       </c>
@@ -996,7 +1002,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10029367403</v>
       </c>

--- a/ProductPivot/ProductionPivot_Unsolved.xlsx
+++ b/ProductPivot/ProductionPivot_Unsolved.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Shipping Price</t>
-  </si>
-  <si>
-    <t>name</t>
   </si>
 </sst>
 </file>
@@ -790,7 +787,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,9 +813,7 @@
       <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
